--- a/JProfiler/Tablas de Tiempos.xlsx
+++ b/JProfiler/Tablas de Tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GitHub\HdT3\JProfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5892D809-2A53-4709-85BB-7BA5B894DD4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3EAC2E-63F1-4F5D-8566-D3771BF07F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3DF4C85-E1E4-4B46-A9CD-5D936FB701F1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
   <si>
     <t>MergeSort (ns)</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Items Ordenados</t>
+  </si>
+  <si>
+    <t>El QuickSort es el mejor método de ordenamiento tanto en items ordenados como items desordenados, por otro lado, el BubbleSort siempre es el que más tiempo se lleva en correr.</t>
+  </si>
+  <si>
+    <t>Un dato interesante es que el GnomeSorte se lleva bastante tiempo en items desordenados, pero al tenerlos ordenados es muy parecido al resto de métodos.</t>
   </si>
 </sst>
 </file>
@@ -142,6 +148,2799 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Items Desordenados vs Nanosegundos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficas!$D$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MergeSort (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$D$12:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1842</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2BD2-4188-8C86-B4716E9C8693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>QuickSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$C$12:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$E$12:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2BD2-4188-8C86-B4716E9C8693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GnomeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$F$12:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2BD2-4188-8C86-B4716E9C8693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>RadixSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$G$12:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2BD2-4188-8C86-B4716E9C8693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BubbleSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$C$12:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$H$12:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2531</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34806</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-2BD2-4188-8C86-B4716E9C8693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="566839224"/>
+        <c:axId val="566840824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="566839224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-GT" baseline="0"/>
+                  <a:t> de Items</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566840824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="566840824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Nanosegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="566839224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Items Ordenados</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-GT" baseline="0"/>
+              <a:t> vs Nanosegundos</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gráficas!$K$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MergeSort (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$K$12:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1853</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1865</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD38-4462-9D2B-A31292ABE368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>QuickSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$L$12:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1742</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2086</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DD38-4462-9D2B-A31292ABE368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GnomeSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$M$12:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2602</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2236</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DD38-4462-9D2B-A31292ABE368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>RadixSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$N$12:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DD38-4462-9D2B-A31292ABE368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BubbleSort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Gráficas!$J$12:$J$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Gráficas!$O$12:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2708</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DD38-4462-9D2B-A31292ABE368}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="584452728"/>
+        <c:axId val="584454648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="584452728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-GT" baseline="0"/>
+                  <a:t> de Items</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-GT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584454648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="584454648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT"/>
+                  <a:t>Nanosegundos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584452728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>111721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>972343</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CC9EB32-D132-44D8-9946-7344AFA540DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>50600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101798</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>644921</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>178592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C334193B-3DAA-4AA1-AB5D-148677269AD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,10 +3240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DED0E3-8450-44E9-9671-01B3752DA6AE}">
-  <dimension ref="C3:M17"/>
+  <dimension ref="C3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,7 +3252,7 @@
     <col min="4" max="4" width="11.1796875" customWidth="1"/>
     <col min="5" max="5" width="10.90625" customWidth="1"/>
     <col min="6" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
@@ -471,7 +3270,7 @@
     <col min="24" max="24" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
@@ -503,7 +3302,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +3334,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
@@ -567,7 +3366,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
@@ -599,7 +3398,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,7 +3430,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -662,12 +3461,207 @@
       <c r="M8" s="2">
         <v>558000000</v>
       </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C12" s="1">
+        <v>100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1340</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1748</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2035</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1498</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2531</v>
+      </c>
+      <c r="J12" s="1">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2207</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1896</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1592</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1566</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C13" s="1">
+        <v>500</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1767</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1320</v>
+      </c>
+      <c r="F13" s="2">
+        <v>15474</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2046</v>
+      </c>
+      <c r="H13" s="2">
+        <v>34806</v>
+      </c>
+      <c r="J13" s="1">
+        <v>500</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1853</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1742</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2602</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1705</v>
+      </c>
+      <c r="O13" s="2">
+        <v>22895</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1842</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2446</v>
+      </c>
+      <c r="F14" s="2">
+        <v>52125</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3225</v>
+      </c>
+      <c r="H14" s="2">
+        <v>83479</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1776</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1854</v>
+      </c>
+      <c r="M14" s="2">
+        <v>2262</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1618</v>
+      </c>
+      <c r="O14" s="2">
+        <v>70710</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="D15" s="2">
+        <v>3475</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1552</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2">
+        <v>8395</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="J15" s="1">
+        <v>3000</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1865</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2086</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2236</v>
+      </c>
+      <c r="N15" s="2">
+        <v>2157</v>
+      </c>
+      <c r="O15" s="2"/>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I17" s="4"/>
     </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JProfiler/Tablas de Tiempos.xlsx
+++ b/JProfiler/Tablas de Tiempos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GitHub\HdT3\JProfiler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD3EAC2E-63F1-4F5D-8566-D3771BF07F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC0224-E467-42EE-BB60-73FC01FC01F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D3DF4C85-E1E4-4B46-A9CD-5D936FB701F1}"/>
   </bookViews>
@@ -185,7 +185,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-GT"/>
-              <a:t>Items Desordenados vs Nanosegundos</a:t>
+              <a:t>Items Desordenados vs Microsegundos</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -797,7 +797,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-GT"/>
-                  <a:t>Nanosegundos</a:t>
+                  <a:t>Microsegundos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -987,7 +987,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="es-GT" baseline="0"/>
-              <a:t> vs Nanosegundos</a:t>
+              <a:t> vs Microsegundos</a:t>
             </a:r>
             <a:endParaRPr lang="es-GT"/>
           </a:p>
@@ -1603,7 +1603,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-GT"/>
-                  <a:t>Nanosegundos</a:t>
+                  <a:t>Microsegundos</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3242,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DED0E3-8450-44E9-9671-01B3752DA6AE}">
   <dimension ref="C3:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="64" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3380,7 +3380,7 @@
         <v>52125</v>
       </c>
       <c r="G6" s="3">
-        <v>358000000</v>
+        <v>358000</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>2</v>
@@ -3444,7 +3444,7 @@
         <v>83479</v>
       </c>
       <c r="G8" s="3">
-        <v>704000000</v>
+        <v>704000</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>4</v>
@@ -3459,7 +3459,7 @@
         <v>70710</v>
       </c>
       <c r="M8" s="2">
-        <v>558000000</v>
+        <v>558000</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
